--- a/station_key.xlsx
+++ b/station_key.xlsx
@@ -15844,7 +15844,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
